--- a/Kolathur.xlsx
+++ b/Kolathur.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9024" activeTab="4"/>
+    <workbookView windowWidth="22188" windowHeight="9024"/>
   </bookViews>
   <sheets>
     <sheet name="Homepage" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="43">
   <si>
     <t>ImageURL</t>
   </si>
@@ -30,370 +30,13 @@
     <t>CategoryName</t>
   </si>
   <si>
-    <t>/Categories/image_77.jpg</t>
-  </si>
-  <si>
-    <t>Stationery</t>
-  </si>
-  <si>
-    <t>/Stationery</t>
-  </si>
-  <si>
-    <t>/Categories/image_2.jpg</t>
-  </si>
-  <si>
-    <t>Air Freshener</t>
-  </si>
-  <si>
-    <t>/sports</t>
-  </si>
-  <si>
-    <t>/Categories/image_3.jpg</t>
-  </si>
-  <si>
-    <t>Anklet Chain</t>
-  </si>
-  <si>
-    <t>/Test1</t>
-  </si>
-  <si>
-    <t>/Categories/image_4.jpg</t>
-  </si>
-  <si>
-    <t>Arts &amp; Crafts</t>
-  </si>
-  <si>
-    <t>/Categories/image_1.jpg</t>
-  </si>
-  <si>
-    <t>Attar &amp; Perfume</t>
-  </si>
-  <si>
-    <t>/Categories/image_7.jpg</t>
-  </si>
-  <si>
-    <t>Baby Care</t>
-  </si>
-  <si>
-    <t>/Categories/image_8.jpg</t>
-  </si>
-  <si>
-    <t>Bags</t>
-  </si>
-  <si>
-    <t>/Categories/image_9.jpg</t>
-  </si>
-  <si>
-    <t>Bangles</t>
-  </si>
-  <si>
-    <t>/Categories/image_10.jpg</t>
-  </si>
-  <si>
-    <t>Bath Soap</t>
-  </si>
-  <si>
-    <t>/Categories/image_12.jpg</t>
-  </si>
-  <si>
-    <t>Belt</t>
-  </si>
-  <si>
-    <t>/Categories/image_13.jpg</t>
-  </si>
-  <si>
-    <t>Carpet</t>
-  </si>
-  <si>
-    <t>/Categories/image_14.jpg</t>
-  </si>
-  <si>
-    <t>chain</t>
-  </si>
-  <si>
-    <t>/Categories/image_15.jpg</t>
+    <t>/Categories/image_16.jpg</t>
   </si>
   <si>
     <t>Chart Sticker</t>
   </si>
   <si>
-    <t>Chocolate</t>
-  </si>
-  <si>
-    <t>/Categories/image_18.jpg</t>
-  </si>
-  <si>
-    <t>Clock &amp; Gift</t>
-  </si>
-  <si>
-    <t>/Categories/image_19.jpg</t>
-  </si>
-  <si>
-    <t>College Bags</t>
-  </si>
-  <si>
-    <t>/Categories/image_20.jpg</t>
-  </si>
-  <si>
-    <t>Cookware &amp; Dinning</t>
-  </si>
-  <si>
-    <t>/Categories/image_21.jpg</t>
-  </si>
-  <si>
-    <t>Cosmatic</t>
-  </si>
-  <si>
-    <t>/Categories/image_25.jpg</t>
-  </si>
-  <si>
-    <t>Earrings</t>
-  </si>
-  <si>
-    <t>/Categories/image_26.jpg</t>
-  </si>
-  <si>
-    <t>Educational Toys</t>
-  </si>
-  <si>
-    <t>/Categories/image_27.jpg</t>
-  </si>
-  <si>
-    <t>Electronic Toys</t>
-  </si>
-  <si>
-    <t>/Categories/image_28.jpg</t>
-  </si>
-  <si>
-    <t>Face Care</t>
-  </si>
-  <si>
-    <t>/Categories/image_29.jpg</t>
-  </si>
-  <si>
-    <t>Feminine Care</t>
-  </si>
-  <si>
-    <t>/Categories/image_30.jpg</t>
-  </si>
-  <si>
-    <t>Fitness &amp; Exercise</t>
-  </si>
-  <si>
-    <t>Flower</t>
-  </si>
-  <si>
-    <t>Fragrance</t>
-  </si>
-  <si>
-    <t>/Categories/image_35.jpg</t>
-  </si>
-  <si>
-    <t>Gifts</t>
-  </si>
-  <si>
-    <t>Girls Wear</t>
-  </si>
-  <si>
-    <t>/Categories/image_37.jpg</t>
-  </si>
-  <si>
-    <t>Hair Care</t>
-  </si>
-  <si>
-    <t>/Categories/image_38.jpg</t>
-  </si>
-  <si>
-    <t>HandBags</t>
-  </si>
-  <si>
-    <t>/Categories/image_39.jpg</t>
-  </si>
-  <si>
-    <t>Health Care</t>
-  </si>
-  <si>
-    <t>/Categories/image_40.jpg</t>
-  </si>
-  <si>
-    <t>Heat Flask</t>
-  </si>
-  <si>
-    <t>/Categories/image_41.jpg</t>
-  </si>
-  <si>
-    <t>Herbal Product</t>
-  </si>
-  <si>
-    <t>/Categories/image_43.jpg</t>
-  </si>
-  <si>
-    <t>Home &amp; Decor</t>
-  </si>
-  <si>
-    <t>/Categories/image_44.jpg</t>
-  </si>
-  <si>
-    <t>Home Gadgets</t>
-  </si>
-  <si>
-    <t>/Categories/image_45.jpg</t>
-  </si>
-  <si>
-    <t>Jewellery</t>
-  </si>
-  <si>
-    <t>/Categories/image_47.jpg</t>
-  </si>
-  <si>
-    <t>kitchen gadgets</t>
-  </si>
-  <si>
-    <t>/Categories/image_50.jpg</t>
-  </si>
-  <si>
-    <t>Men's Wallet</t>
-  </si>
-  <si>
-    <t>/Categories/image_53.jpg</t>
-  </si>
-  <si>
-    <t>Mobile Accessories</t>
-  </si>
-  <si>
-    <t>/Categories/image_55.jpg</t>
-  </si>
-  <si>
-    <t>Mobile Gadgets</t>
-  </si>
-  <si>
-    <t>Monsoon Accessories</t>
-  </si>
-  <si>
-    <t>/Categories/image_57.jpg</t>
-  </si>
-  <si>
-    <t>Necklace</t>
-  </si>
-  <si>
-    <t>/Categories/image_59.jpg</t>
-  </si>
-  <si>
-    <t>Note Book</t>
-  </si>
-  <si>
-    <t>/Categories/image_60.jpg</t>
-  </si>
-  <si>
-    <t>Office Product</t>
-  </si>
-  <si>
-    <t>/Categories/image_62.jpg</t>
-  </si>
-  <si>
-    <t>Oral Care</t>
-  </si>
-  <si>
-    <t>/Categories/image_63.jpg</t>
-  </si>
-  <si>
-    <t>Paper</t>
-  </si>
-  <si>
-    <t>/Categories/image_64.jpg</t>
-  </si>
-  <si>
-    <t>Pen</t>
-  </si>
-  <si>
-    <t>/Categories/image_65.jpg</t>
-  </si>
-  <si>
-    <t>Perfume</t>
-  </si>
-  <si>
-    <t>/Categories/image_66.jpg</t>
-  </si>
-  <si>
-    <t>Pretend Play</t>
-  </si>
-  <si>
-    <t>/Categories/image_67.jpg</t>
-  </si>
-  <si>
-    <t>Rainy  Accessories</t>
-  </si>
-  <si>
-    <t>/Categories/image_70.jpg</t>
-  </si>
-  <si>
-    <t>Remote Toys</t>
-  </si>
-  <si>
-    <t>/Categories/image_72.jpg</t>
-  </si>
-  <si>
-    <t>School Bags</t>
-  </si>
-  <si>
-    <t>/Categories/image_74.jpg</t>
-  </si>
-  <si>
-    <t>Skin Care</t>
-  </si>
-  <si>
-    <t>/Categories/image_76.jpg</t>
-  </si>
-  <si>
-    <t>Soft Toys</t>
-  </si>
-  <si>
-    <t>/Categories/image_79.jpg</t>
-  </si>
-  <si>
-    <t>Toys</t>
-  </si>
-  <si>
-    <t>/Categories/image_80.jpg</t>
-  </si>
-  <si>
-    <t>Travel Bags</t>
-  </si>
-  <si>
-    <t>/Categories/image_83.jpg</t>
-  </si>
-  <si>
-    <t>Wallets</t>
-  </si>
-  <si>
-    <t>/Categories/image_85.jpg</t>
-  </si>
-  <si>
-    <t>Water Bottle</t>
-  </si>
-  <si>
-    <t>/Categories/image_86.jpg</t>
-  </si>
-  <si>
-    <t>Women's Grooming</t>
-  </si>
-  <si>
-    <t>/Categories/image_88.jpg</t>
-  </si>
-  <si>
-    <t>Women's Wallet</t>
-  </si>
-  <si>
-    <t>/Categories/image_90.jpg</t>
-  </si>
-  <si>
-    <t>Wooden Toys</t>
-  </si>
-  <si>
-    <t>/Categories/image_91.jpg</t>
-  </si>
-  <si>
-    <t>Writing &amp; Correction</t>
+    <t>/ChartSticker</t>
   </si>
   <si>
     <t>imageurl</t>
@@ -1675,8 +1318,8 @@
   <sheetPr/>
   <dimension ref="A1:C91"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -1705,544 +1348,247 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>12</v>
-      </c>
+    <row r="3" spans="2:3">
+      <c r="B3" s="1"/>
+      <c r="C3" s="3"/>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="B5" s="1"/>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>14</v>
-      </c>
+    <row r="6" spans="2:3">
+      <c r="B6" s="1"/>
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>16</v>
-      </c>
+    <row r="7" spans="2:3">
+      <c r="B7" s="1"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>18</v>
-      </c>
+    <row r="8" spans="2:3">
+      <c r="B8" s="1"/>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>20</v>
-      </c>
+    <row r="9" spans="2:3">
+      <c r="B9" s="1"/>
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>22</v>
-      </c>
+    <row r="10" spans="2:3">
+      <c r="B10" s="1"/>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>24</v>
-      </c>
+    <row r="11" spans="2:3">
+      <c r="B11" s="1"/>
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>26</v>
-      </c>
+    <row r="12" spans="2:3">
+      <c r="B12" s="1"/>
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>28</v>
-      </c>
+    <row r="13" spans="2:3">
+      <c r="B13" s="1"/>
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>30</v>
-      </c>
+    <row r="14" spans="3:3">
       <c r="C14" s="1"/>
     </row>
     <row r="15" spans="2:3">
-      <c r="B15" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="B15" s="1"/>
       <c r="C15" s="1"/>
     </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>33</v>
-      </c>
+    <row r="16" spans="2:3">
+      <c r="B16" s="1"/>
       <c r="C16" s="1"/>
     </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>35</v>
-      </c>
+    <row r="17" spans="2:3">
+      <c r="B17" s="1"/>
       <c r="C17" s="1"/>
     </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>37</v>
-      </c>
+    <row r="18" spans="2:3">
+      <c r="B18" s="1"/>
       <c r="C18" s="1"/>
     </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>39</v>
-      </c>
+    <row r="19" spans="2:3">
+      <c r="B19" s="1"/>
       <c r="C19" s="1"/>
     </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>41</v>
-      </c>
+    <row r="20" spans="2:3">
+      <c r="B20" s="1"/>
       <c r="C20" s="1"/>
     </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>42</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>43</v>
-      </c>
+    <row r="21" spans="2:3">
+      <c r="B21" s="1"/>
       <c r="C21" s="1"/>
     </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>44</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>45</v>
-      </c>
+    <row r="22" spans="2:3">
+      <c r="B22" s="1"/>
       <c r="C22" s="1"/>
     </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>46</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>47</v>
-      </c>
+    <row r="23" spans="2:3">
+      <c r="B23" s="1"/>
       <c r="C23" s="1"/>
     </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
-        <v>48</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>49</v>
-      </c>
+    <row r="24" spans="2:3">
+      <c r="B24" s="1"/>
       <c r="C24" s="1"/>
     </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>50</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>7</v>
-      </c>
+    <row r="25" spans="2:3">
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
     </row>
     <row r="26" spans="2:3">
-      <c r="B26" s="1" t="s">
-        <v>52</v>
-      </c>
+      <c r="B26" s="1"/>
       <c r="C26" s="1"/>
     </row>
     <row r="27" spans="2:3">
-      <c r="B27" s="1" t="s">
-        <v>53</v>
-      </c>
+      <c r="B27" s="1"/>
       <c r="C27" s="1"/>
     </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>54</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>55</v>
-      </c>
+    <row r="28" spans="2:3">
+      <c r="B28" s="1"/>
       <c r="C28" s="1"/>
     </row>
     <row r="29" spans="2:3">
-      <c r="B29" s="1" t="s">
-        <v>56</v>
-      </c>
+      <c r="B29" s="1"/>
       <c r="C29" s="1"/>
     </row>
-    <row r="30" spans="1:3">
-      <c r="A30" t="s">
-        <v>57</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>58</v>
-      </c>
+    <row r="30" spans="2:3">
+      <c r="B30" s="1"/>
       <c r="C30" s="1"/>
     </row>
-    <row r="31" spans="1:3">
-      <c r="A31" t="s">
-        <v>59</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>60</v>
-      </c>
+    <row r="31" spans="2:3">
+      <c r="B31" s="1"/>
       <c r="C31" s="1"/>
     </row>
-    <row r="32" spans="1:3">
-      <c r="A32" t="s">
-        <v>61</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>62</v>
-      </c>
+    <row r="32" spans="2:3">
+      <c r="B32" s="1"/>
       <c r="C32" s="1"/>
     </row>
-    <row r="33" spans="1:3">
-      <c r="A33" t="s">
-        <v>63</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>64</v>
-      </c>
+    <row r="33" spans="2:3">
+      <c r="B33" s="1"/>
       <c r="C33" s="1"/>
     </row>
-    <row r="34" spans="1:3">
-      <c r="A34" t="s">
-        <v>65</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>66</v>
-      </c>
+    <row r="34" spans="2:3">
+      <c r="B34" s="1"/>
       <c r="C34" s="1"/>
     </row>
-    <row r="35" spans="1:3">
-      <c r="A35" t="s">
-        <v>67</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>68</v>
-      </c>
+    <row r="35" spans="2:3">
+      <c r="B35" s="1"/>
       <c r="C35" s="1"/>
     </row>
-    <row r="36" spans="1:3">
-      <c r="A36" t="s">
-        <v>69</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>70</v>
-      </c>
+    <row r="36" spans="2:3">
+      <c r="B36" s="1"/>
       <c r="C36" s="1"/>
     </row>
-    <row r="37" spans="1:3">
-      <c r="A37" t="s">
-        <v>71</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>72</v>
-      </c>
+    <row r="37" spans="2:3">
+      <c r="B37" s="1"/>
       <c r="C37" s="1"/>
     </row>
-    <row r="38" spans="1:3">
-      <c r="A38" t="s">
-        <v>73</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>74</v>
-      </c>
+    <row r="38" spans="2:3">
+      <c r="B38" s="1"/>
       <c r="C38" s="1"/>
     </row>
-    <row r="39" spans="1:3">
-      <c r="A39" t="s">
-        <v>75</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>76</v>
-      </c>
+    <row r="39" spans="2:3">
+      <c r="B39" s="1"/>
       <c r="C39" s="1"/>
     </row>
-    <row r="40" spans="1:3">
-      <c r="A40" t="s">
-        <v>77</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>78</v>
-      </c>
+    <row r="40" spans="2:3">
+      <c r="B40" s="1"/>
       <c r="C40" s="1"/>
     </row>
-    <row r="41" spans="1:3">
-      <c r="A41" t="s">
-        <v>79</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>80</v>
-      </c>
+    <row r="41" spans="2:3">
+      <c r="B41" s="1"/>
       <c r="C41" s="1"/>
     </row>
     <row r="42" spans="2:3">
-      <c r="B42" s="1" t="s">
-        <v>81</v>
-      </c>
+      <c r="B42" s="1"/>
       <c r="C42" s="1"/>
     </row>
-    <row r="43" spans="1:3">
-      <c r="A43" t="s">
-        <v>82</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>83</v>
-      </c>
+    <row r="43" spans="2:3">
+      <c r="B43" s="1"/>
       <c r="C43" s="1"/>
     </row>
-    <row r="44" spans="1:3">
-      <c r="A44" t="s">
-        <v>84</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>85</v>
-      </c>
+    <row r="44" spans="2:3">
+      <c r="B44" s="1"/>
       <c r="C44" s="1"/>
     </row>
-    <row r="45" spans="1:3">
-      <c r="A45" t="s">
-        <v>86</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="45" spans="2:3">
+      <c r="B45" s="1"/>
       <c r="C45" s="1"/>
     </row>
-    <row r="46" spans="1:3">
-      <c r="A46" t="s">
-        <v>88</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>89</v>
-      </c>
+    <row r="46" spans="2:3">
+      <c r="B46" s="1"/>
       <c r="C46" s="1"/>
     </row>
-    <row r="47" spans="1:3">
-      <c r="A47" t="s">
-        <v>90</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>91</v>
-      </c>
+    <row r="47" spans="2:3">
+      <c r="B47" s="1"/>
       <c r="C47" s="1"/>
     </row>
-    <row r="48" spans="1:3">
-      <c r="A48" t="s">
-        <v>92</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>93</v>
-      </c>
+    <row r="48" spans="2:3">
+      <c r="B48" s="1"/>
       <c r="C48" s="1"/>
     </row>
-    <row r="49" spans="1:3">
-      <c r="A49" t="s">
-        <v>94</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>95</v>
-      </c>
+    <row r="49" spans="2:3">
+      <c r="B49" s="1"/>
       <c r="C49" s="1"/>
     </row>
-    <row r="50" spans="1:3">
-      <c r="A50" t="s">
-        <v>96</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>97</v>
-      </c>
+    <row r="50" spans="2:3">
+      <c r="B50" s="1"/>
       <c r="C50" s="1"/>
     </row>
-    <row r="51" spans="1:3">
-      <c r="A51" t="s">
-        <v>98</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>99</v>
-      </c>
+    <row r="51" spans="2:3">
+      <c r="B51" s="1"/>
       <c r="C51" s="1"/>
     </row>
-    <row r="52" spans="1:3">
-      <c r="A52" t="s">
-        <v>100</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>101</v>
-      </c>
+    <row r="52" spans="2:3">
+      <c r="B52" s="1"/>
       <c r="C52" s="1"/>
     </row>
-    <row r="53" spans="1:3">
-      <c r="A53" t="s">
-        <v>102</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>103</v>
-      </c>
+    <row r="53" spans="2:3">
+      <c r="B53" s="1"/>
       <c r="C53" s="1"/>
     </row>
-    <row r="54" spans="1:3">
-      <c r="A54" t="s">
-        <v>104</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>105</v>
-      </c>
+    <row r="54" spans="2:3">
+      <c r="B54" s="1"/>
       <c r="C54" s="1"/>
     </row>
-    <row r="55" spans="1:3">
-      <c r="A55" t="s">
-        <v>106</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>107</v>
-      </c>
+    <row r="55" spans="2:3">
+      <c r="B55" s="1"/>
       <c r="C55" s="1"/>
     </row>
-    <row r="56" spans="1:3">
-      <c r="A56" t="s">
-        <v>108</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>109</v>
-      </c>
+    <row r="56" spans="2:3">
+      <c r="B56" s="1"/>
       <c r="C56" s="1"/>
     </row>
-    <row r="57" spans="1:3">
-      <c r="A57" t="s">
-        <v>110</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>111</v>
-      </c>
+    <row r="57" spans="2:3">
+      <c r="B57" s="1"/>
       <c r="C57" s="1"/>
     </row>
-    <row r="58" spans="1:3">
-      <c r="A58" t="s">
-        <v>112</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>113</v>
-      </c>
+    <row r="58" spans="2:3">
+      <c r="B58" s="1"/>
       <c r="C58" s="1"/>
     </row>
-    <row r="59" spans="1:3">
-      <c r="A59" t="s">
-        <v>114</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>115</v>
-      </c>
+    <row r="59" spans="2:3">
+      <c r="B59" s="1"/>
       <c r="C59" s="1"/>
     </row>
-    <row r="60" spans="1:3">
-      <c r="A60" t="s">
-        <v>116</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>117</v>
-      </c>
+    <row r="60" spans="2:3">
+      <c r="B60" s="1"/>
       <c r="C60" s="1"/>
     </row>
-    <row r="61" spans="1:3">
-      <c r="A61" t="s">
-        <v>118</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>119</v>
-      </c>
+    <row r="61" spans="2:3">
+      <c r="B61" s="1"/>
       <c r="C61" s="1"/>
     </row>
-    <row r="62" spans="1:3">
-      <c r="A62" t="s">
-        <v>120</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>121</v>
-      </c>
+    <row r="62" spans="2:3">
+      <c r="B62" s="1"/>
       <c r="C62" s="1"/>
     </row>
-    <row r="63" spans="1:3">
-      <c r="A63" t="s">
-        <v>122</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>123</v>
-      </c>
+    <row r="63" spans="2:3">
+      <c r="B63" s="1"/>
       <c r="C63" s="1"/>
     </row>
     <row r="64" spans="3:3">
@@ -2351,29 +1697,29 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>125</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>126</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>127</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>128</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>130</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="2:2">
@@ -2576,32 +1922,32 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>125</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>126</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>127</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>131</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>133</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>134</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -2627,32 +1973,32 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>125</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>135</v>
+        <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>136</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>137</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>133</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>134</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -2666,7 +2012,7 @@
   <sheetPr/>
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2:H7"/>
     </sheetView>
   </sheetViews>
@@ -2684,34 +2030,34 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>138</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>124</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>139</v>
+        <v>20</v>
       </c>
       <c r="D1" t="s">
-        <v>140</v>
+        <v>21</v>
       </c>
       <c r="E1" t="s">
-        <v>141</v>
+        <v>22</v>
       </c>
       <c r="F1" t="s">
-        <v>142</v>
+        <v>23</v>
       </c>
       <c r="G1" t="s">
-        <v>143</v>
+        <v>24</v>
       </c>
       <c r="H1" t="s">
-        <v>144</v>
+        <v>25</v>
       </c>
       <c r="I1" t="s">
-        <v>145</v>
+        <v>26</v>
       </c>
       <c r="J1" t="s">
-        <v>146</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -2719,31 +2065,31 @@
         <v>2051</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>147</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>148</v>
+        <v>29</v>
       </c>
       <c r="D2" s="1">
         <v>50</v>
       </c>
       <c r="E2" t="s">
-        <v>149</v>
+        <v>30</v>
       </c>
       <c r="F2">
         <v>198</v>
       </c>
       <c r="G2" t="s">
-        <v>150</v>
+        <v>31</v>
       </c>
       <c r="H2" t="s">
-        <v>151</v>
+        <v>32</v>
       </c>
       <c r="I2" t="s">
-        <v>152</v>
+        <v>33</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>153</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2751,31 +2097,31 @@
         <v>2052</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>147</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>148</v>
+        <v>29</v>
       </c>
       <c r="D3" s="1">
         <v>28</v>
       </c>
       <c r="E3" t="s">
-        <v>149</v>
+        <v>30</v>
       </c>
       <c r="F3">
         <v>40</v>
       </c>
       <c r="G3" t="s">
-        <v>150</v>
+        <v>31</v>
       </c>
       <c r="H3" t="s">
-        <v>154</v>
+        <v>35</v>
       </c>
       <c r="I3" t="s">
-        <v>152</v>
+        <v>33</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>155</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2783,31 +2129,31 @@
         <v>2053</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>147</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>148</v>
+        <v>29</v>
       </c>
       <c r="D4" s="1">
         <v>75</v>
       </c>
       <c r="E4" t="s">
-        <v>149</v>
+        <v>30</v>
       </c>
       <c r="F4">
         <v>128</v>
       </c>
       <c r="G4" t="s">
-        <v>150</v>
+        <v>31</v>
       </c>
       <c r="H4" t="s">
-        <v>156</v>
+        <v>37</v>
       </c>
       <c r="I4" t="s">
-        <v>152</v>
+        <v>33</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>157</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2815,31 +2161,31 @@
         <v>2054</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>147</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>148</v>
+        <v>29</v>
       </c>
       <c r="D5" s="1">
         <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>149</v>
+        <v>30</v>
       </c>
       <c r="F5">
         <v>10</v>
       </c>
       <c r="G5" t="s">
-        <v>150</v>
+        <v>31</v>
       </c>
       <c r="H5" t="s">
-        <v>158</v>
+        <v>39</v>
       </c>
       <c r="I5" t="s">
-        <v>152</v>
+        <v>33</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>153</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2847,31 +2193,31 @@
         <v>2055</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>147</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>159</v>
+        <v>40</v>
       </c>
       <c r="D6" s="1">
         <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>149</v>
+        <v>30</v>
       </c>
       <c r="F6">
         <v>40</v>
       </c>
       <c r="G6" t="s">
-        <v>150</v>
+        <v>31</v>
       </c>
       <c r="H6" t="s">
-        <v>159</v>
+        <v>40</v>
       </c>
       <c r="I6" t="s">
-        <v>152</v>
+        <v>33</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>155</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2879,31 +2225,31 @@
         <v>2056</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>147</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>160</v>
+        <v>41</v>
       </c>
       <c r="D7" s="1">
         <v>150</v>
       </c>
       <c r="E7" t="s">
-        <v>149</v>
+        <v>30</v>
       </c>
       <c r="F7">
         <v>256</v>
       </c>
       <c r="G7" t="s">
-        <v>150</v>
+        <v>31</v>
       </c>
       <c r="H7" t="s">
-        <v>161</v>
+        <v>42</v>
       </c>
       <c r="I7" t="s">
-        <v>152</v>
+        <v>33</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>157</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -2937,32 +2283,32 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>151</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>154</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>156</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>158</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>159</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>161</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/Kolathur.xlsx
+++ b/Kolathur.xlsx
@@ -8,21 +8,22 @@
   </bookViews>
   <sheets>
     <sheet name="Homepage" sheetId="1" r:id="rId1"/>
-    <sheet name="sports" sheetId="2" r:id="rId2"/>
-    <sheet name="Cards" sheetId="3" r:id="rId3"/>
-    <sheet name="Stationery" sheetId="4" r:id="rId4"/>
+    <sheet name="Stationery" sheetId="4" r:id="rId2"/>
+    <sheet name="sports" sheetId="2" r:id="rId3"/>
+    <sheet name="Cards" sheetId="3" r:id="rId4"/>
     <sheet name="Notebooks" sheetId="5" r:id="rId5"/>
     <sheet name="junk" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Homepage!$B$1:$B$91</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Homepage!#REF!</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
   <si>
     <t>ImageURL</t>
   </si>
@@ -30,7 +31,169 @@
     <t>CategoryName</t>
   </si>
   <si>
-    <t>/Categories/image_16.jpg</t>
+    <t>/Categories/Stationery/Stationery.jpg</t>
+  </si>
+  <si>
+    <t>Stationery</t>
+  </si>
+  <si>
+    <t>/Stationery</t>
+  </si>
+  <si>
+    <t>/Categories/GiftsResized.jpg</t>
+  </si>
+  <si>
+    <t>Gifts</t>
+  </si>
+  <si>
+    <t>/Gifts</t>
+  </si>
+  <si>
+    <t>/Categories/CleaningResized.jpg</t>
+  </si>
+  <si>
+    <t>Cleaning Products</t>
+  </si>
+  <si>
+    <t>/Cleaning</t>
+  </si>
+  <si>
+    <t>/Categories/sportResized.jpg</t>
+  </si>
+  <si>
+    <t>Sports Indoor and Outdoor</t>
+  </si>
+  <si>
+    <t>/Categories/DecorationResized.jpg</t>
+  </si>
+  <si>
+    <t>Decoration</t>
+  </si>
+  <si>
+    <t>/Categories/PackagingResized.jpg</t>
+  </si>
+  <si>
+    <t>Packaging Materials</t>
+  </si>
+  <si>
+    <t>/Categories/HouseHoldResized.jpg</t>
+  </si>
+  <si>
+    <t>HouseHold Appliances</t>
+  </si>
+  <si>
+    <t>/Categories/TOYSResized.jpg</t>
+  </si>
+  <si>
+    <t>TOYS</t>
+  </si>
+  <si>
+    <t>/Categories/KidsFashionResized.jpg</t>
+  </si>
+  <si>
+    <t>Kids Fashion</t>
+  </si>
+  <si>
+    <t>/Categories/MensFashionResized.jpg</t>
+  </si>
+  <si>
+    <t>Mens Fashion</t>
+  </si>
+  <si>
+    <t>/Categories/WomenFashionResized.jpg</t>
+  </si>
+  <si>
+    <t>Women Fashion</t>
+  </si>
+  <si>
+    <t>/Categories/HomeDecorResized.jpg</t>
+  </si>
+  <si>
+    <t>Home Decoration</t>
+  </si>
+  <si>
+    <t>imageurl</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>Links</t>
+  </si>
+  <si>
+    <t>/Categories/Stationery/NotebookResized.jpg</t>
+  </si>
+  <si>
+    <t>Notebooks</t>
+  </si>
+  <si>
+    <t>/Notebooks</t>
+  </si>
+  <si>
+    <t>/Categories/Stationery/ArtCraftResized.jpg</t>
+  </si>
+  <si>
+    <t>Arts and Crafts</t>
+  </si>
+  <si>
+    <t>/Artandcraft</t>
+  </si>
+  <si>
+    <t>/Categories/Stationery/BagsResized.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">School and College Bags </t>
+  </si>
+  <si>
+    <t>/SchoolBags</t>
+  </si>
+  <si>
+    <t>/Categories/Stationery/OfficeResized.jpg</t>
+  </si>
+  <si>
+    <t>Office products</t>
+  </si>
+  <si>
+    <t>/OfficeProducts</t>
+  </si>
+  <si>
+    <t>/Categories/Stationery/WorldMapResized.jpg</t>
+  </si>
+  <si>
+    <t>Graph and Map Paper</t>
+  </si>
+  <si>
+    <t>/GraphMap</t>
+  </si>
+  <si>
+    <t>/Categories/Stationery/PaperResized.jpg</t>
+  </si>
+  <si>
+    <t>A4 A3 A2 and other paper</t>
+  </si>
+  <si>
+    <t>/A4A3paper</t>
+  </si>
+  <si>
+    <t>/Categories/Stationery/WriteResized.jpg</t>
+  </si>
+  <si>
+    <t>Writing and Correction</t>
+  </si>
+  <si>
+    <t>/WritingCorrection</t>
+  </si>
+  <si>
+    <t>/Categories/Stationery/WaterBottle.jpg</t>
+  </si>
+  <si>
+    <t>Water Bottle</t>
+  </si>
+  <si>
+    <t>/WaterBottle</t>
+  </si>
+  <si>
+    <t>/Categories/Stationery/PictureChartResized.jpg</t>
   </si>
   <si>
     <t>Chart Sticker</t>
@@ -39,12 +202,6 @@
     <t>/ChartSticker</t>
   </si>
   <si>
-    <t>imageurl</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
     <t>/Categories/sports/cards.jpg</t>
   </si>
   <si>
@@ -70,15 +227,6 @@
   </si>
   <si>
     <t>/CartDetails</t>
-  </si>
-  <si>
-    <t>Categories/Stationery/Notebook.jpg</t>
-  </si>
-  <si>
-    <t>Notebooks</t>
-  </si>
-  <si>
-    <t>/Notebooks</t>
   </si>
   <si>
     <t>Product ID</t>
@@ -163,7 +311,7 @@
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -178,12 +326,6 @@
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color rgb="FFCE9178"/>
-      <name val="Consolas"/>
-      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -642,133 +784,133 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -780,8 +922,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1316,18 +1458,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C91"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A1" sqref="A1:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="2"/>
-  <cols>
-    <col min="1" max="1" width="26.6666666666667" customWidth="1"/>
-    <col min="2" max="2" width="25.1111111111111" customWidth="1"/>
-    <col min="3" max="3" width="25.4444444444444" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -1348,332 +1485,108 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:3">
-      <c r="B3" s="1"/>
-      <c r="C3" s="3"/>
-    </row>
-    <row r="4" spans="2:3">
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="2:3">
-      <c r="B5" s="1"/>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="2:3">
-      <c r="B6" s="1"/>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="2:3">
-      <c r="B7" s="1"/>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="2:3">
-      <c r="B8" s="1"/>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="2:3">
-      <c r="B9" s="1"/>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="2:3">
-      <c r="B10" s="1"/>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="2:3">
-      <c r="B11" s="1"/>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="2:3">
-      <c r="B12" s="1"/>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="2:3">
-      <c r="B13" s="1"/>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="C13" s="1"/>
-    </row>
-    <row r="14" spans="3:3">
-      <c r="C14" s="1"/>
-    </row>
-    <row r="15" spans="2:3">
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-    </row>
-    <row r="16" spans="2:3">
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-    </row>
-    <row r="17" spans="2:3">
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-    </row>
-    <row r="18" spans="2:3">
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-    </row>
-    <row r="19" spans="2:3">
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-    </row>
-    <row r="20" spans="2:3">
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-    </row>
-    <row r="21" spans="2:3">
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-    </row>
-    <row r="22" spans="2:3">
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-    </row>
-    <row r="23" spans="2:3">
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-    </row>
-    <row r="24" spans="2:3">
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-    </row>
-    <row r="25" spans="2:3">
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-    </row>
-    <row r="26" spans="2:3">
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-    </row>
-    <row r="27" spans="2:3">
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-    </row>
-    <row r="28" spans="2:3">
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-    </row>
-    <row r="29" spans="2:3">
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-    </row>
-    <row r="30" spans="2:3">
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-    </row>
-    <row r="31" spans="2:3">
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-    </row>
-    <row r="32" spans="2:3">
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-    </row>
-    <row r="33" spans="2:3">
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-    </row>
-    <row r="34" spans="2:3">
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-    </row>
-    <row r="35" spans="2:3">
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-    </row>
-    <row r="36" spans="2:3">
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-    </row>
-    <row r="37" spans="2:3">
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-    </row>
-    <row r="38" spans="2:3">
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-    </row>
-    <row r="39" spans="2:3">
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-    </row>
-    <row r="40" spans="2:3">
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-    </row>
-    <row r="41" spans="2:3">
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-    </row>
-    <row r="42" spans="2:3">
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-    </row>
-    <row r="43" spans="2:3">
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-    </row>
-    <row r="44" spans="2:3">
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-    </row>
-    <row r="45" spans="2:3">
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-    </row>
-    <row r="46" spans="2:3">
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-    </row>
-    <row r="47" spans="2:3">
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-    </row>
-    <row r="48" spans="2:3">
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-    </row>
-    <row r="49" spans="2:3">
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-    </row>
-    <row r="50" spans="2:3">
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-    </row>
-    <row r="51" spans="2:3">
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-    </row>
-    <row r="52" spans="2:3">
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-    </row>
-    <row r="53" spans="2:3">
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-    </row>
-    <row r="54" spans="2:3">
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-    </row>
-    <row r="55" spans="2:3">
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-    </row>
-    <row r="56" spans="2:3">
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-    </row>
-    <row r="57" spans="2:3">
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
-    </row>
-    <row r="58" spans="2:3">
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
-    </row>
-    <row r="59" spans="2:3">
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
-    </row>
-    <row r="60" spans="2:3">
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
-    </row>
-    <row r="61" spans="2:3">
-      <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
-    </row>
-    <row r="62" spans="2:3">
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
-    </row>
-    <row r="63" spans="2:3">
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
-    </row>
-    <row r="64" spans="3:3">
-      <c r="C64" s="1"/>
-    </row>
-    <row r="65" spans="3:3">
-      <c r="C65" s="1"/>
-    </row>
-    <row r="66" spans="3:3">
-      <c r="C66" s="1"/>
-    </row>
-    <row r="67" spans="3:3">
-      <c r="C67" s="1"/>
-    </row>
-    <row r="68" spans="3:3">
-      <c r="C68" s="1"/>
-    </row>
-    <row r="69" spans="3:3">
-      <c r="C69" s="1"/>
-    </row>
-    <row r="70" spans="3:3">
-      <c r="C70" s="1"/>
-    </row>
-    <row r="71" spans="3:3">
-      <c r="C71" s="1"/>
-    </row>
-    <row r="72" spans="3:3">
-      <c r="C72" s="1"/>
-    </row>
-    <row r="73" spans="3:3">
-      <c r="C73" s="1"/>
-    </row>
-    <row r="74" spans="3:3">
-      <c r="C74" s="1"/>
-    </row>
-    <row r="75" spans="3:3">
-      <c r="C75" s="1"/>
-    </row>
-    <row r="76" spans="3:3">
-      <c r="C76" s="1"/>
-    </row>
-    <row r="77" spans="3:3">
-      <c r="C77" s="1"/>
-    </row>
-    <row r="78" spans="3:3">
-      <c r="C78" s="1"/>
-    </row>
-    <row r="79" spans="3:3">
-      <c r="C79" s="1"/>
-    </row>
-    <row r="80" spans="3:3">
-      <c r="C80" s="1"/>
-    </row>
-    <row r="81" spans="3:3">
-      <c r="C81" s="1"/>
-    </row>
-    <row r="82" spans="3:3">
-      <c r="C82" s="1"/>
-    </row>
-    <row r="83" spans="3:3">
-      <c r="C83" s="1"/>
-    </row>
-    <row r="84" spans="3:3">
-      <c r="C84" s="1"/>
-    </row>
-    <row r="85" spans="3:3">
-      <c r="C85" s="1"/>
-    </row>
-    <row r="86" spans="3:3">
-      <c r="C86" s="1"/>
-    </row>
-    <row r="87" spans="3:3">
-      <c r="C87" s="1"/>
-    </row>
-    <row r="88" spans="3:3">
-      <c r="C88" s="1"/>
-    </row>
-    <row r="89" spans="3:3">
-      <c r="C89" s="1"/>
-    </row>
-    <row r="90" spans="3:3">
-      <c r="C90" s="1"/>
-    </row>
-    <row r="91" spans="3:3">
-      <c r="C91" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1682,6 +1595,137 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="41.5555555555556" customWidth="1"/>
+    <col min="2" max="2" width="31.5555555555556" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:C62"/>
@@ -1697,29 +1741,29 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="2:2">
@@ -1898,57 +1942,6 @@
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="2"/>
-  <cols>
-    <col min="1" max="1" width="31.7777777777778" customWidth="1"/>
-    <col min="2" max="2" width="16.5555555555556" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1962,43 +1955,43 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="42.3333333333333" customWidth="1"/>
-    <col min="2" max="2" width="17.8888888888889" customWidth="1"/>
+    <col min="1" max="1" width="31.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="16.5555555555556" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -2030,34 +2023,34 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="D1" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="E1" t="s">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="F1" t="s">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="G1" t="s">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="H1" t="s">
-        <v>25</v>
+        <v>74</v>
       </c>
       <c r="I1" t="s">
-        <v>26</v>
+        <v>75</v>
       </c>
       <c r="J1" t="s">
-        <v>27</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -2065,31 +2058,31 @@
         <v>2051</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>28</v>
+        <v>77</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="D2" s="1">
         <v>50</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="F2">
         <v>198</v>
       </c>
       <c r="G2" t="s">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="H2" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="I2" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>34</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2097,31 +2090,31 @@
         <v>2052</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>28</v>
+        <v>77</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="D3" s="1">
         <v>28</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="F3">
         <v>40</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="H3" t="s">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>36</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2129,31 +2122,31 @@
         <v>2053</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>28</v>
+        <v>77</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="D4" s="1">
         <v>75</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="F4">
         <v>128</v>
       </c>
       <c r="G4" t="s">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="H4" t="s">
-        <v>37</v>
+        <v>86</v>
       </c>
       <c r="I4" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>38</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2161,31 +2154,31 @@
         <v>2054</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>28</v>
+        <v>77</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="D5" s="1">
         <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="F5">
         <v>10</v>
       </c>
       <c r="G5" t="s">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="H5" t="s">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="I5" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>34</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2193,31 +2186,31 @@
         <v>2055</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>28</v>
+        <v>77</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="D6" s="1">
         <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="F6">
         <v>40</v>
       </c>
       <c r="G6" t="s">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="H6" t="s">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="I6" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>36</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2225,31 +2218,31 @@
         <v>2056</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>28</v>
+        <v>77</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="D7" s="1">
         <v>150</v>
       </c>
       <c r="E7" t="s">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="F7">
         <v>256</v>
       </c>
       <c r="G7" t="s">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="H7" t="s">
-        <v>42</v>
+        <v>91</v>
       </c>
       <c r="I7" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>38</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2283,36 +2276,52 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/Kolathur.xlsx
+++ b/Kolathur.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="98">
   <si>
     <t>ImageURL</t>
   </si>
@@ -52,7 +52,7 @@
     <t>/Categories/CleaningResized.jpg</t>
   </si>
   <si>
-    <t>Cleaning Products</t>
+    <t>Cleaning</t>
   </si>
   <si>
     <t>/Cleaning</t>
@@ -61,7 +61,7 @@
     <t>/Categories/sportResized.jpg</t>
   </si>
   <si>
-    <t>Sports Indoor and Outdoor</t>
+    <t>Sports</t>
   </si>
   <si>
     <t>/Categories/DecorationResized.jpg</t>
@@ -73,19 +73,19 @@
     <t>/Categories/PackagingResized.jpg</t>
   </si>
   <si>
-    <t>Packaging Materials</t>
+    <t>Packaging</t>
   </si>
   <si>
     <t>/Categories/HouseHoldResized.jpg</t>
   </si>
   <si>
-    <t>HouseHold Appliances</t>
+    <t>HouseHold</t>
   </si>
   <si>
     <t>/Categories/TOYSResized.jpg</t>
   </si>
   <si>
-    <t>TOYS</t>
+    <t>Toys</t>
   </si>
   <si>
     <t>/Categories/KidsFashionResized.jpg</t>
@@ -110,6 +110,24 @@
   </si>
   <si>
     <t>Home Decoration</t>
+  </si>
+  <si>
+    <t>/Categories/TailoringResized.jpg</t>
+  </si>
+  <si>
+    <t>Tailoring</t>
+  </si>
+  <si>
+    <t>/Categories/Baby CareResized.jpg</t>
+  </si>
+  <si>
+    <t>Baby Care</t>
+  </si>
+  <si>
+    <t>/Categories/DisposableResized.jpg</t>
+  </si>
+  <si>
+    <t>Disposable</t>
   </si>
   <si>
     <t>imageurl</t>
@@ -1458,10 +1476,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:C13"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -1587,6 +1605,30 @@
         <v>28</v>
       </c>
       <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1611,112 +1653,112 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C7" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C8" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C9" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C10" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1741,29 +1783,29 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="2:2">
@@ -1966,32 +2008,32 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C3" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -2023,34 +2065,34 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="F1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="G1" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="H1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="I1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="J1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -2058,31 +2100,31 @@
         <v>2051</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="D2" s="1">
         <v>50</v>
       </c>
       <c r="E2" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="F2">
         <v>198</v>
       </c>
       <c r="G2" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="H2" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="I2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2090,31 +2132,31 @@
         <v>2052</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C3" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="D3" s="1">
         <v>28</v>
       </c>
       <c r="E3" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="F3">
         <v>40</v>
       </c>
       <c r="G3" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="H3" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="I3" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2122,31 +2164,31 @@
         <v>2053</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C4" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="D4" s="1">
         <v>75</v>
       </c>
       <c r="E4" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="F4">
         <v>128</v>
       </c>
       <c r="G4" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="H4" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="I4" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2154,31 +2196,31 @@
         <v>2054</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C5" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="D5" s="1">
         <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="F5">
         <v>10</v>
       </c>
       <c r="G5" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="H5" t="s">
+        <v>94</v>
+      </c>
+      <c r="I5" t="s">
         <v>88</v>
       </c>
-      <c r="I5" t="s">
-        <v>82</v>
-      </c>
       <c r="J5" s="2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2186,31 +2228,31 @@
         <v>2055</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C6" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="D6" s="1">
         <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="F6">
         <v>40</v>
       </c>
       <c r="G6" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="H6" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="I6" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2218,31 +2260,31 @@
         <v>2056</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="D7" s="1">
         <v>150</v>
       </c>
       <c r="E7" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="F7">
         <v>256</v>
       </c>
       <c r="G7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="H7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="I7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -2276,32 +2318,32 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/Kolathur.xlsx
+++ b/Kolathur.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="99">
   <si>
     <t>ImageURL</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>Toys</t>
+  </si>
+  <si>
+    <t>/Toys</t>
   </si>
   <si>
     <t>/Categories/KidsFashionResized.jpg</t>
@@ -1479,10 +1482,14 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="36.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="35" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -1568,66 +1575,68 @@
       <c r="B9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" s="1"/>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C12" s="1"/>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C13" s="1"/>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1653,112 +1662,112 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1783,29 +1792,29 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="2:2">
@@ -2008,32 +2017,32 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -2065,34 +2074,34 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -2100,31 +2109,31 @@
         <v>2051</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D2" s="1">
         <v>50</v>
       </c>
       <c r="E2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F2">
         <v>198</v>
       </c>
       <c r="G2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2132,31 +2141,31 @@
         <v>2052</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D3" s="1">
         <v>28</v>
       </c>
       <c r="E3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F3">
         <v>40</v>
       </c>
       <c r="G3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2164,31 +2173,31 @@
         <v>2053</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D4" s="1">
         <v>75</v>
       </c>
       <c r="E4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F4">
         <v>128</v>
       </c>
       <c r="G4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2196,31 +2205,31 @@
         <v>2054</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D5" s="1">
         <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F5">
         <v>10</v>
       </c>
       <c r="G5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2228,31 +2237,31 @@
         <v>2055</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D6" s="1">
         <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F6">
         <v>40</v>
       </c>
       <c r="G6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2260,31 +2269,31 @@
         <v>2056</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D7" s="1">
         <v>150</v>
       </c>
       <c r="E7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F7">
         <v>256</v>
       </c>
       <c r="G7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -2318,32 +2327,32 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/Kolathur.xlsx
+++ b/Kolathur.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9024"/>
+    <workbookView windowWidth="21996" windowHeight="8807"/>
   </bookViews>
   <sheets>
     <sheet name="Homepage" sheetId="1" r:id="rId1"/>
@@ -18,12 +18,25 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Homepage!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="102">
   <si>
     <t>ImageURL</t>
   </si>
@@ -70,6 +83,9 @@
     <t>Decoration</t>
   </si>
   <si>
+    <t>/Decoration</t>
+  </si>
+  <si>
     <t>/Categories/PackagingResized.jpg</t>
   </si>
   <si>
@@ -131,6 +147,12 @@
   </si>
   <si>
     <t>Disposable</t>
+  </si>
+  <si>
+    <t>https://images.meesho.com/images/products/381148754/f7bfz_512.webp</t>
+  </si>
+  <si>
+    <t>Keychain</t>
   </si>
   <si>
     <t>imageurl</t>
@@ -325,7 +347,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
@@ -1479,10 +1501,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -1548,98 +1570,111 @@
       <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7" s="1"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" s="1"/>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C12" s="1"/>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C13" s="1"/>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A17" r:id="rId1" display="https://images.meesho.com/images/products/381148754/f7bfz_512.webp" tooltip="https://images.meesho.com/images/products/381148754/f7bfz_512.webp"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -1662,112 +1697,112 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C8" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C9" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C10" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1792,29 +1827,29 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="2:2">
@@ -2017,32 +2052,32 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C3" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -2074,34 +2109,34 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="J1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -2109,31 +2144,31 @@
         <v>2051</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D2" s="1">
         <v>50</v>
       </c>
       <c r="E2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F2">
         <v>198</v>
       </c>
       <c r="G2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2141,31 +2176,31 @@
         <v>2052</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D3" s="1">
         <v>28</v>
       </c>
       <c r="E3" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F3">
         <v>40</v>
       </c>
       <c r="G3" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H3" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I3" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2173,31 +2208,31 @@
         <v>2053</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C4" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D4" s="1">
         <v>75</v>
       </c>
       <c r="E4" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F4">
         <v>128</v>
       </c>
       <c r="G4" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H4" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="I4" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2205,31 +2240,31 @@
         <v>2054</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D5" s="1">
         <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F5">
         <v>10</v>
       </c>
       <c r="G5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H5" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="I5" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2237,31 +2272,31 @@
         <v>2055</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C6" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D6" s="1">
         <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F6">
         <v>40</v>
       </c>
       <c r="G6" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H6" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I6" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2269,31 +2304,31 @@
         <v>2056</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D7" s="1">
         <v>150</v>
       </c>
       <c r="E7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F7">
         <v>256</v>
       </c>
       <c r="G7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -2327,32 +2362,32 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/Kolathur.xlsx
+++ b/Kolathur.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21996" windowHeight="8807"/>
+    <workbookView windowWidth="22188" windowHeight="8675" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Homepage" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,8 @@
     <sheet name="Cards" sheetId="3" r:id="rId4"/>
     <sheet name="Notebooks" sheetId="5" r:id="rId5"/>
     <sheet name="junk" sheetId="6" r:id="rId6"/>
-    <sheet name="Sheet1" sheetId="7" r:id="rId7"/>
+    <sheet name="Disposable" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Homepage!#REF!</definedName>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="106">
   <si>
     <t>ImageURL</t>
   </si>
@@ -149,7 +150,10 @@
     <t>Disposable</t>
   </si>
   <si>
-    <t>https://images.meesho.com/images/products/381148754/f7bfz_512.webp</t>
+    <t>/Disposable</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?export=view&amp;id=1fhhU2HTGbrSjiS4thQYt9gh1QhxTLWGq</t>
   </si>
   <si>
     <t>Keychain</t>
@@ -342,6 +346,15 @@
   </si>
   <si>
     <t>Accounts Checked</t>
+  </si>
+  <si>
+    <t>1fhhU2HTGbrSjiS4thQYt9gh1QhxTLWGq</t>
+  </si>
+  <si>
+    <t>Garbage bag</t>
+  </si>
+  <si>
+    <t>Sindha</t>
   </si>
 </sst>
 </file>
@@ -962,10 +975,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1503,8 +1516,8 @@
   <sheetPr/>
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -1655,25 +1668,28 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>35</v>
       </c>
       <c r="B16" t="s">
         <v>36</v>
       </c>
+      <c r="C16" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="2" t="s">
-        <v>37</v>
+      <c r="A17" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A17" r:id="rId1" display="https://images.meesho.com/images/products/381148754/f7bfz_512.webp" tooltip="https://images.meesho.com/images/products/381148754/f7bfz_512.webp"/>
+    <hyperlink ref="A17" r:id="rId1" display="https://drive.google.com/uc?export=view&amp;id=1fhhU2HTGbrSjiS4thQYt9gh1QhxTLWGq" tooltip="https://drive.google.com/uc?export=view&amp;id=1fhhU2HTGbrSjiS4thQYt9gh1QhxTLWGq"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -1686,7 +1702,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A1" sqref="A1:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -1697,112 +1713,112 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" s="3" t="s">
         <v>46</v>
       </c>
+      <c r="B3" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4" s="3" t="s">
         <v>49</v>
       </c>
+      <c r="B4" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="C4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B5" s="3" t="s">
         <v>52</v>
       </c>
+      <c r="B5" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B6" s="3" t="s">
         <v>55</v>
       </c>
+      <c r="B6" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="C6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>57</v>
-      </c>
-      <c r="B7" s="3" t="s">
         <v>58</v>
       </c>
+      <c r="B7" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="C7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B8" s="3" t="s">
         <v>61</v>
       </c>
+      <c r="B8" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="C8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>63</v>
-      </c>
-      <c r="B9" s="3" t="s">
         <v>64</v>
       </c>
+      <c r="B9" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="C9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>66</v>
-      </c>
-      <c r="B10" s="3" t="s">
         <v>67</v>
       </c>
+      <c r="B10" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="C10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1827,29 +1843,29 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="2:2">
@@ -2052,32 +2068,32 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -2109,226 +2125,226 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2">
         <v>2051</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>87</v>
+      <c r="B2" s="3" t="s">
+        <v>88</v>
       </c>
       <c r="C2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D2" s="1">
         <v>50</v>
       </c>
       <c r="E2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F2">
         <v>198</v>
       </c>
       <c r="G2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I2" t="s">
-        <v>92</v>
-      </c>
-      <c r="J2" s="2" t="s">
         <v>93</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3">
         <v>2052</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>87</v>
+      <c r="B3" s="3" t="s">
+        <v>88</v>
       </c>
       <c r="C3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D3" s="1">
         <v>28</v>
       </c>
       <c r="E3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F3">
         <v>40</v>
       </c>
       <c r="G3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I3" t="s">
-        <v>92</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4">
         <v>2053</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>87</v>
+      <c r="B4" s="3" t="s">
+        <v>88</v>
       </c>
       <c r="C4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D4" s="1">
         <v>75</v>
       </c>
       <c r="E4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F4">
         <v>128</v>
       </c>
       <c r="G4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I4" t="s">
-        <v>92</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5">
         <v>2054</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>87</v>
+      <c r="B5" s="3" t="s">
+        <v>88</v>
       </c>
       <c r="C5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D5" s="1">
         <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F5">
         <v>10</v>
       </c>
       <c r="G5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I5" t="s">
-        <v>92</v>
-      </c>
-      <c r="J5" s="2" t="s">
         <v>93</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6">
         <v>2055</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>87</v>
+      <c r="B6" s="3" t="s">
+        <v>88</v>
       </c>
       <c r="C6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D6" s="1">
         <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F6">
         <v>40</v>
       </c>
       <c r="G6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I6" t="s">
-        <v>92</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7">
         <v>2056</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>87</v>
+      <c r="B7" s="3" t="s">
+        <v>88</v>
       </c>
       <c r="C7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D7" s="1">
         <v>150</v>
       </c>
       <c r="E7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F7">
         <v>256</v>
       </c>
       <c r="G7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I7" t="s">
-        <v>92</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -2362,32 +2378,32 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -2399,14 +2415,88 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="52.2222222222222" customWidth="1"/>
+    <col min="2" max="2" width="28.8888888888889" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:C13"/>
+      <selection activeCell="A1" sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="79.6666666666667" customWidth="1"/>
+    <col min="2" max="2" width="32.7777777777778" customWidth="1"/>
+    <col min="3" max="3" width="33.5555555555556" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" spans="2:2">
+      <c r="B3" s="2"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/Kolathur.xlsx
+++ b/Kolathur.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="8675" activeTab="6"/>
+    <workbookView windowWidth="22188" windowHeight="8675"/>
   </bookViews>
   <sheets>
     <sheet name="Homepage" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="108">
   <si>
     <t>ImageURL</t>
   </si>
@@ -78,6 +78,9 @@
     <t>Sports</t>
   </si>
   <si>
+    <t>/Sports</t>
+  </si>
+  <si>
     <t>/Categories/DecorationResized.jpg</t>
   </si>
   <si>
@@ -136,6 +139,9 @@
   </si>
   <si>
     <t>Tailoring</t>
+  </si>
+  <si>
+    <t>/Tailoring</t>
   </si>
   <si>
     <t>/Categories/Baby CareResized.jpg</t>
@@ -1516,8 +1522,8 @@
   <sheetPr/>
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -1574,117 +1580,122 @@
       <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7" s="1"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C11" s="1"/>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C12" s="1"/>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="C14" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C16" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1713,112 +1724,112 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C10" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1843,29 +1854,29 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="2:2">
@@ -2068,32 +2079,32 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -2125,34 +2136,34 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -2160,31 +2171,31 @@
         <v>2051</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D2" s="1">
         <v>50</v>
       </c>
       <c r="E2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F2">
         <v>198</v>
       </c>
       <c r="G2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="I2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2192,31 +2203,31 @@
         <v>2052</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D3" s="1">
         <v>28</v>
       </c>
       <c r="E3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F3">
         <v>40</v>
       </c>
       <c r="G3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H3" t="s">
+        <v>97</v>
+      </c>
+      <c r="I3" t="s">
         <v>95</v>
       </c>
-      <c r="I3" t="s">
-        <v>93</v>
-      </c>
       <c r="J3" s="3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2224,31 +2235,31 @@
         <v>2053</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D4" s="1">
         <v>75</v>
       </c>
       <c r="E4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F4">
         <v>128</v>
       </c>
       <c r="G4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="I4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2256,31 +2267,31 @@
         <v>2054</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D5" s="1">
         <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F5">
         <v>10</v>
       </c>
       <c r="G5" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H5" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="I5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2288,31 +2299,31 @@
         <v>2055</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C6" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D6" s="1">
         <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F6">
         <v>40</v>
       </c>
       <c r="G6" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H6" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I6" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2320,31 +2331,31 @@
         <v>2056</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D7" s="1">
         <v>150</v>
       </c>
       <c r="E7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F7">
         <v>256</v>
       </c>
       <c r="G7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="I7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -2378,32 +2389,32 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -2417,7 +2428,7 @@
   <sheetPr/>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -2429,24 +2440,24 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -2473,24 +2484,24 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="2:2">
